--- a/biology/Botanique/Crique_(cuisine)/Crique_(cuisine).xlsx
+++ b/biology/Botanique/Crique_(cuisine)/Crique_(cuisine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une crique est une galette de pommes de terre revenues à la poêle.
@@ -512,9 +524,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Ardèche et dans la Drôme, la recette traditionnelle consiste à râper les pommes de terre crues qui sont ensuite assaisonnées (sel, poivre et persil), éventuellement additionnées d'un ou plusieurs œufs battus et cuites à la poêle sous forme d'une galette d'un doigt d'épaisseur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Ardèche et dans la Drôme, la recette traditionnelle consiste à râper les pommes de terre crues qui sont ensuite assaisonnées (sel, poivre et persil), éventuellement additionnées d'un ou plusieurs œufs battus et cuites à la poêle sous forme d'une galette d'un doigt d'épaisseur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Service</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La crique peut constituer un plat principal en accompagnement avec une salade. Elle se sert aussi pour accompagner des grillades, des viandes rôties ou des daubes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crique peut constituer un plat principal en accompagnement avec une salade. Elle se sert aussi pour accompagner des grillades, des viandes rôties ou des daubes.
 			Lapin aux champignons et sa crique.
 			Crique du Dauphiné.
 			Daube de bœuf accompagnée d'une crique.
@@ -577,9 +593,11 @@
           <t>Accord mets-vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement, il est conseillé d'accompagner cette omelette soit d'un vin rosé comme le côtes-de-provence (AOC) ou l'ajaccio (AOC) soit d'un vin rouge, tel que le bourgueil (AOC)[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, il est conseillé d'accompagner cette omelette soit d'un vin rosé comme le côtes-de-provence (AOC) ou l'ajaccio (AOC) soit d'un vin rouge, tel que le bourgueil (AOC),.
 </t>
         </is>
       </c>
